--- a/tests/manual-cases.xlsx
+++ b/tests/manual-cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33580" yWindow="880" windowWidth="28800" windowHeight="15940" tabRatio="969" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="28800" windowHeight="15940" tabRatio="969" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Database Input Tab all Sections" sheetId="11" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="624">
   <si>
     <t>Participant Company</t>
   </si>
@@ -5083,7 +5083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -5686,8 +5686,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="403">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6091,8 +6104,18 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6735,19 +6758,49 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6780,38 +6833,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="403">
+  <cellStyles count="413">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7013,6 +7051,11 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7214,29 +7257,14 @@
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7575,7 +7603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13545,28 +13573,28 @@
     </row>
     <row r="3" spans="1:45" ht="15" thickBot="1"/>
     <row r="4" spans="1:45" s="16" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="239" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="230"/>
-      <c r="T4" s="231"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="241"/>
     </row>
     <row r="5" spans="1:45" s="16" customFormat="1" ht="56">
       <c r="A5" s="66"/>
@@ -13837,23 +13865,23 @@
       <c r="AF10" s="25"/>
     </row>
     <row r="11" spans="1:45" ht="29" thickBot="1">
-      <c r="A11" s="242" t="s">
+      <c r="A11" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="244"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="226"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
@@ -13905,23 +13933,23 @@
       <c r="AS12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="22" customFormat="1" ht="31" thickBot="1">
-      <c r="A13" s="239" t="s">
+      <c r="A13" s="227" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="240"/>
-      <c r="O13" s="241"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="229"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
@@ -13950,31 +13978,31 @@
       <c r="AO13" s="26"/>
     </row>
     <row r="14" spans="1:45" s="22" customFormat="1" ht="24" thickBot="1">
-      <c r="A14" s="226" t="s">
+      <c r="A14" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="227"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="224" t="s">
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="233" t="s">
         <v>334</v>
       </c>
-      <c r="F14" s="248" t="s">
+      <c r="F14" s="235" t="s">
         <v>332</v>
       </c>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="224" t="s">
+      <c r="G14" s="236"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="233" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="232" t="s">
+      <c r="K14" s="242" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="233"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="242"/>
+      <c r="N14" s="242"/>
+      <c r="O14" s="243"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
@@ -14013,7 +14041,7 @@
         <v>383</v>
       </c>
       <c r="D15" s="74"/>
-      <c r="E15" s="224"/>
+      <c r="E15" s="233"/>
       <c r="F15" s="70" t="s">
         <v>382</v>
       </c>
@@ -14024,7 +14052,7 @@
         <v>383</v>
       </c>
       <c r="I15" s="73"/>
-      <c r="J15" s="224"/>
+      <c r="J15" s="233"/>
       <c r="K15" s="70" t="s">
         <v>446</v>
       </c>
@@ -14078,7 +14106,7 @@
       <c r="D16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="224"/>
+      <c r="E16" s="233"/>
       <c r="F16" s="34" t="s">
         <v>16</v>
       </c>
@@ -14091,7 +14119,7 @@
       <c r="I16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="224"/>
+      <c r="J16" s="233"/>
       <c r="K16" s="34" t="s">
         <v>18</v>
       </c>
@@ -14144,7 +14172,7 @@
       <c r="D17" s="38">
         <v>4</v>
       </c>
-      <c r="E17" s="224"/>
+      <c r="E17" s="233"/>
       <c r="F17" s="17">
         <v>35</v>
       </c>
@@ -14157,7 +14185,7 @@
       <c r="I17" s="38">
         <v>4</v>
       </c>
-      <c r="J17" s="224"/>
+      <c r="J17" s="233"/>
       <c r="K17" s="17">
         <v>2.5</v>
       </c>
@@ -14206,7 +14234,7 @@
       <c r="D18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="225"/>
+      <c r="E18" s="234"/>
       <c r="F18" s="187" t="s">
         <v>38</v>
       </c>
@@ -14215,13 +14243,13 @@
       <c r="I18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="225"/>
-      <c r="K18" s="234" t="s">
+      <c r="J18" s="234"/>
+      <c r="K18" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
+      <c r="L18" s="244"/>
+      <c r="M18" s="244"/>
+      <c r="N18" s="244"/>
       <c r="O18" s="46" t="s">
         <v>36</v>
       </c>
@@ -14250,24 +14278,24 @@
       <c r="AL18" s="26"/>
     </row>
     <row r="19" spans="1:51" s="22" customFormat="1">
-      <c r="A19" s="235" t="s">
+      <c r="A19" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="236"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="236"/>
-      <c r="O19" s="236"/>
-      <c r="P19" s="237"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="246"/>
+      <c r="M19" s="246"/>
+      <c r="N19" s="246"/>
+      <c r="O19" s="246"/>
+      <c r="P19" s="247"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
@@ -14295,78 +14323,78 @@
       <c r="AO19" s="26"/>
     </row>
     <row r="20" spans="1:51" ht="15" thickBot="1">
-      <c r="A20" s="235"/>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="236"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="238"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="246"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="248"/>
       <c r="AP20"/>
       <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
     </row>
     <row r="21" spans="1:51" ht="31" thickBot="1">
-      <c r="A21" s="239" t="s">
+      <c r="A21" s="227" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="240"/>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="240"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="240"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="241"/>
+      <c r="B21" s="228"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="228"/>
+      <c r="P21" s="229"/>
       <c r="AP21"/>
       <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
     </row>
     <row r="22" spans="1:51" ht="24" thickBot="1">
-      <c r="A22" s="226" t="s">
+      <c r="A22" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="224" t="s">
+      <c r="B22" s="236"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="233" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="248" t="s">
+      <c r="E22" s="235" t="s">
         <v>332</v>
       </c>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="224" t="s">
+      <c r="F22" s="236"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="233" t="s">
         <v>334</v>
       </c>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="230" t="s">
         <v>333</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="246"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="246"/>
-      <c r="P22" s="247"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="232"/>
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
@@ -14385,7 +14413,7 @@
       <c r="C23" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="D23" s="224"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="70" t="s">
         <v>382</v>
       </c>
@@ -14397,7 +14425,7 @@
       </c>
       <c r="H23" s="73"/>
       <c r="I23" s="74"/>
-      <c r="J23" s="224"/>
+      <c r="J23" s="233"/>
       <c r="K23" s="70" t="s">
         <v>446</v>
       </c>
@@ -14430,7 +14458,7 @@
       <c r="C24" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="224"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="34" t="s">
         <v>16</v>
       </c>
@@ -14446,7 +14474,7 @@
       <c r="I24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="224"/>
+      <c r="J24" s="233"/>
       <c r="K24" s="34" t="s">
         <v>18</v>
       </c>
@@ -14482,7 +14510,7 @@
       <c r="C25" s="17">
         <v>45</v>
       </c>
-      <c r="D25" s="224"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="17">
         <v>35</v>
       </c>
@@ -14498,7 +14526,7 @@
       <c r="I25" s="17">
         <v>95</v>
       </c>
-      <c r="J25" s="224"/>
+      <c r="J25" s="233"/>
       <c r="K25" s="17">
         <v>2.5</v>
       </c>
@@ -14530,7 +14558,7 @@
       </c>
       <c r="B26" s="187"/>
       <c r="C26" s="187"/>
-      <c r="D26" s="225"/>
+      <c r="D26" s="234"/>
       <c r="E26" s="187" t="s">
         <v>38</v>
       </c>
@@ -14542,13 +14570,13 @@
       <c r="I26" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="225"/>
-      <c r="K26" s="234" t="s">
+      <c r="J26" s="234"/>
+      <c r="K26" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
+      <c r="N26" s="244"/>
       <c r="O26" s="45" t="s">
         <v>36</v>
       </c>
@@ -15269,14 +15297,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="A30:AS30"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="K8:T8"/>
@@ -15293,6 +15313,14 @@
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A19:P20"/>
     <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15362,7 +15390,7 @@
   </sheetPr>
   <dimension ref="A2:AY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -16514,39 +16542,39 @@
         <v>0.87175413892186404</v>
       </c>
       <c r="P24" s="35">
-        <f>-0.4508*M24^3+1.2399*M24^2+-0.4301*M24+0.641</f>
+        <f t="shared" ref="P24:R26" si="1">-0.4508*M24^3+1.2399*M24^2+-0.4301*M24+0.641</f>
         <v>0.90420840834627092</v>
       </c>
       <c r="Q24" s="35">
-        <f>-0.4508*N24^3+1.2399*N24^2+-0.4301*N24+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.86260645878849274</v>
       </c>
       <c r="R24" s="35">
-        <f>-0.4508*O24^3+1.2399*O24^2+-0.4301*O24+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.90967472778435088</v>
       </c>
       <c r="S24" s="35">
-        <f>P24*$E$24</f>
+        <f t="shared" ref="S24:U26" si="2">P24*$E$24</f>
         <v>3.7095729573180343</v>
       </c>
       <c r="T24" s="35">
-        <f>Q24*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.5388982924656109</v>
       </c>
       <c r="U24" s="35">
-        <f>R24*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.7319988832178494</v>
       </c>
       <c r="V24" s="35">
-        <f>S24+J24</f>
+        <f t="shared" ref="V24:X26" si="3">S24+J24</f>
         <v>55.548552088581545</v>
       </c>
       <c r="W24" s="35">
-        <f>T24+K24</f>
+        <f t="shared" si="3"/>
         <v>51.796715246206752</v>
       </c>
       <c r="X24" s="35">
-        <f>U24+L24</f>
+        <f t="shared" si="3"/>
         <v>56.037247218529693</v>
       </c>
       <c r="Y24" s="35">
@@ -16578,47 +16606,47 @@
         <v>0.93641048781355463</v>
       </c>
       <c r="AF24" s="35">
-        <f t="shared" ref="AF24" si="1">IF((AC24/$J$7)&gt;1,1,(AC24/$J$7))</f>
+        <f t="shared" ref="AF24" si="4">IF((AC24/$J$7)&gt;1,1,(AC24/$J$7))</f>
         <v>0.87172098432040512</v>
       </c>
       <c r="AG24" s="35">
-        <f t="shared" ref="AG24" si="2">IF((AD24/$J$7)&gt;1,1,(AD24/$J$7))</f>
+        <f t="shared" ref="AG24" si="5">IF((AD24/$J$7)&gt;1,1,(AD24/$J$7))</f>
         <v>0.9448330952825359</v>
       </c>
       <c r="AH24" s="35">
-        <f>-0.4508*AE24^3+1.2399*AE24^2+-0.4301*AE24+0.641</f>
+        <f t="shared" ref="AH24:AJ26" si="6">-0.4508*AE24^3+1.2399*AE24^2+-0.4301*AE24+0.641</f>
         <v>0.9553200404202784</v>
       </c>
       <c r="AI24" s="35">
-        <f>-0.4508*AF24^3+1.2399*AF24^2+-0.4301*AF24+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.90965138991644412</v>
       </c>
       <c r="AJ24" s="35">
-        <f>-0.4508*AG24^3+1.2399*AG24^2+-0.4301*AG24+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.96126542299373785</v>
       </c>
       <c r="AK24" s="35">
-        <f>AH24*$E$24</f>
+        <f t="shared" ref="AK24:AM26" si="7">AH24*$E$24</f>
         <v>3.9192617042883211</v>
       </c>
       <c r="AL24" s="35">
-        <f>AI24*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.7319031381187449</v>
       </c>
       <c r="AM24" s="35">
-        <f>AJ24*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.943653017410206</v>
       </c>
       <c r="AN24" s="35">
-        <f>AK24+AB24</f>
+        <f t="shared" ref="AN24:AP26" si="8">AK24+AB24</f>
         <v>60.103890973101599</v>
       </c>
       <c r="AO24" s="35">
-        <f>AL24+AC24</f>
+        <f t="shared" si="8"/>
         <v>56.035162197343055</v>
       </c>
       <c r="AP24" s="35">
-        <f>AM24+AD24</f>
+        <f t="shared" si="8"/>
         <v>60.633638734362357</v>
       </c>
       <c r="AQ24" s="35">
@@ -16697,47 +16725,47 @@
         <v>0.86398298552105846</v>
       </c>
       <c r="N25" s="35">
-        <f t="shared" ref="N25" si="3">IF((K25/$J$7)&gt;1,1,(K25/$J$7))</f>
+        <f t="shared" ref="N25" si="9">IF((K25/$J$7)&gt;1,1,(K25/$J$7))</f>
         <v>0.80429694922901906</v>
       </c>
       <c r="O25" s="35">
-        <f t="shared" ref="O25" si="4">IF((L25/$J$7)&gt;1,1,(L25/$J$7))</f>
+        <f t="shared" ref="O25" si="10">IF((L25/$J$7)&gt;1,1,(L25/$J$7))</f>
         <v>0.87175413892186404</v>
       </c>
       <c r="P25" s="35">
-        <f>-0.4508*M25^3+1.2399*M25^2+-0.4301*M25+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.90420840834627092</v>
       </c>
       <c r="Q25" s="35">
-        <f>-0.4508*N25^3+1.2399*N25^2+-0.4301*N25+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.86260645878849274</v>
       </c>
       <c r="R25" s="35">
-        <f>-0.4508*O25^3+1.2399*O25^2+-0.4301*O25+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.90967472778435088</v>
       </c>
       <c r="S25" s="35">
-        <f>P25*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.7095729573180343</v>
       </c>
       <c r="T25" s="35">
-        <f>Q25*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.5388982924656109</v>
       </c>
       <c r="U25" s="35">
-        <f>R25*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.7319988832178494</v>
       </c>
       <c r="V25" s="35">
-        <f>S25+J25</f>
+        <f t="shared" si="3"/>
         <v>55.548552088581545</v>
       </c>
       <c r="W25" s="35">
-        <f>T25+K25</f>
+        <f t="shared" si="3"/>
         <v>51.796715246206752</v>
       </c>
       <c r="X25" s="35">
-        <f>U25+L25</f>
+        <f t="shared" si="3"/>
         <v>56.037247218529693</v>
       </c>
       <c r="Y25" s="35">
@@ -16769,47 +16797,47 @@
         <v>0.93641048781355463</v>
       </c>
       <c r="AF25" s="35">
-        <f t="shared" ref="AF25" si="5">IF((AC25/$J$7)&gt;1,1,(AC25/$J$7))</f>
+        <f t="shared" ref="AF25" si="11">IF((AC25/$J$7)&gt;1,1,(AC25/$J$7))</f>
         <v>0.87172098432040512</v>
       </c>
       <c r="AG25" s="35">
-        <f t="shared" ref="AG25" si="6">IF((AD25/$J$7)&gt;1,1,(AD25/$J$7))</f>
+        <f t="shared" ref="AG25" si="12">IF((AD25/$J$7)&gt;1,1,(AD25/$J$7))</f>
         <v>0.9448330952825359</v>
       </c>
       <c r="AH25" s="35">
-        <f>-0.4508*AE25^3+1.2399*AE25^2+-0.4301*AE25+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.9553200404202784</v>
       </c>
       <c r="AI25" s="35">
-        <f>-0.4508*AF25^3+1.2399*AF25^2+-0.4301*AF25+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.90965138991644412</v>
       </c>
       <c r="AJ25" s="35">
-        <f>-0.4508*AG25^3+1.2399*AG25^2+-0.4301*AG25+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.96126542299373785</v>
       </c>
       <c r="AK25" s="35">
-        <f>AH25*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.9192617042883211</v>
       </c>
       <c r="AL25" s="35">
-        <f>AI25*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.7319031381187449</v>
       </c>
       <c r="AM25" s="35">
-        <f>AJ25*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.943653017410206</v>
       </c>
       <c r="AN25" s="35">
-        <f>AK25+AB25</f>
+        <f t="shared" si="8"/>
         <v>60.103890973101599</v>
       </c>
       <c r="AO25" s="35">
-        <f>AL25+AC25</f>
+        <f t="shared" si="8"/>
         <v>56.035162197343055</v>
       </c>
       <c r="AP25" s="35">
-        <f>AM25+AD25</f>
+        <f t="shared" si="8"/>
         <v>60.633638734362357</v>
       </c>
       <c r="AQ25" s="35">
@@ -16888,47 +16916,47 @@
         <v>0.86398298552105846</v>
       </c>
       <c r="N26" s="35">
-        <f t="shared" ref="N26" si="7">IF((K26/$J$7)&gt;1,1,(K26/$J$7))</f>
+        <f t="shared" ref="N26" si="13">IF((K26/$J$7)&gt;1,1,(K26/$J$7))</f>
         <v>0.80429694922901906</v>
       </c>
       <c r="O26" s="35">
-        <f t="shared" ref="O26" si="8">IF((L26/$J$7)&gt;1,1,(L26/$J$7))</f>
+        <f t="shared" ref="O26" si="14">IF((L26/$J$7)&gt;1,1,(L26/$J$7))</f>
         <v>0.87175413892186404</v>
       </c>
       <c r="P26" s="35">
-        <f>-0.4508*M26^3+1.2399*M26^2+-0.4301*M26+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.90420840834627092</v>
       </c>
       <c r="Q26" s="35">
-        <f>-0.4508*N26^3+1.2399*N26^2+-0.4301*N26+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.86260645878849274</v>
       </c>
       <c r="R26" s="35">
-        <f>-0.4508*O26^3+1.2399*O26^2+-0.4301*O26+0.641</f>
+        <f t="shared" si="1"/>
         <v>0.90967472778435088</v>
       </c>
       <c r="S26" s="35">
-        <f>P26*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.7095729573180343</v>
       </c>
       <c r="T26" s="35">
-        <f>Q26*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.5388982924656109</v>
       </c>
       <c r="U26" s="35">
-        <f>R26*$E$24</f>
+        <f t="shared" si="2"/>
         <v>3.7319988832178494</v>
       </c>
       <c r="V26" s="35">
-        <f>S26+J26</f>
+        <f t="shared" si="3"/>
         <v>55.548552088581545</v>
       </c>
       <c r="W26" s="35">
-        <f>T26+K26</f>
+        <f t="shared" si="3"/>
         <v>51.796715246206752</v>
       </c>
       <c r="X26" s="35">
-        <f>U26+L26</f>
+        <f t="shared" si="3"/>
         <v>56.037247218529693</v>
       </c>
       <c r="Y26" s="35">
@@ -16960,47 +16988,47 @@
         <v>0.93641048781355463</v>
       </c>
       <c r="AF26" s="35">
-        <f t="shared" ref="AF26" si="9">IF((AC26/$J$7)&gt;1,1,(AC26/$J$7))</f>
+        <f t="shared" ref="AF26" si="15">IF((AC26/$J$7)&gt;1,1,(AC26/$J$7))</f>
         <v>0.87172098432040512</v>
       </c>
       <c r="AG26" s="35">
-        <f t="shared" ref="AG26" si="10">IF((AD26/$J$7)&gt;1,1,(AD26/$J$7))</f>
+        <f t="shared" ref="AG26" si="16">IF((AD26/$J$7)&gt;1,1,(AD26/$J$7))</f>
         <v>0.9448330952825359</v>
       </c>
       <c r="AH26" s="35">
-        <f>-0.4508*AE26^3+1.2399*AE26^2+-0.4301*AE26+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.9553200404202784</v>
       </c>
       <c r="AI26" s="35">
-        <f>-0.4508*AF26^3+1.2399*AF26^2+-0.4301*AF26+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.90965138991644412</v>
       </c>
       <c r="AJ26" s="35">
-        <f>-0.4508*AG26^3+1.2399*AG26^2+-0.4301*AG26+0.641</f>
+        <f t="shared" si="6"/>
         <v>0.96126542299373785</v>
       </c>
       <c r="AK26" s="35">
-        <f>AH26*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.9192617042883211</v>
       </c>
       <c r="AL26" s="35">
-        <f>AI26*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.7319031381187449</v>
       </c>
       <c r="AM26" s="35">
-        <f>AJ26*$E$24</f>
+        <f t="shared" si="7"/>
         <v>3.943653017410206</v>
       </c>
       <c r="AN26" s="35">
-        <f>AK26+AB26</f>
+        <f t="shared" si="8"/>
         <v>60.103890973101599</v>
       </c>
       <c r="AO26" s="35">
-        <f>AL26+AC26</f>
+        <f t="shared" si="8"/>
         <v>56.035162197343055</v>
       </c>
       <c r="AP26" s="35">
-        <f>AM26+AD26</f>
+        <f t="shared" si="8"/>
         <v>60.633638734362357</v>
       </c>
       <c r="AQ26" s="35">
@@ -17334,22 +17362,21 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -18737,12 +18764,11 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -18798,7 +18824,7 @@
   </sheetPr>
   <dimension ref="A2:AY28"/>
   <sheetViews>
-    <sheetView topLeftCell="AP9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="U6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -20194,7 +20220,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20252,10 +20278,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AY28"/>
+  <dimension ref="A2:AY29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AQ20" sqref="AQ20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20575,165 +20601,170 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="18" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:32" s="16" customFormat="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="249">
+        <f>G7*25.4</f>
+        <v>101.6</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="250">
+        <f>L7*0.745699872</f>
+        <v>44.741992320000001</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="251">
+        <f>N7*0.227124707</f>
+        <v>79.455151736949162</v>
+      </c>
+      <c r="O8" s="252">
+        <f>O7*0.3048</f>
+        <v>129.36619132433208</v>
+      </c>
+      <c r="P8" s="251">
+        <f>P7*0.227124707</f>
+        <v>59.591368037240308</v>
+      </c>
+      <c r="Q8" s="252">
+        <f>Q7*0.3048</f>
+        <v>152.0620143636886</v>
+      </c>
+      <c r="R8" s="251">
+        <f>R7*0.227124707</f>
+        <v>87.400666910644063</v>
+      </c>
+      <c r="S8" s="252">
+        <f>S7*0.3048</f>
+        <v>116.88348865268601</v>
+      </c>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253"/>
+    </row>
+    <row r="9" spans="1:32" s="18" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B9" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C9" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D9" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E9" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="157" t="s">
+      <c r="F9" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="147" t="s">
+      <c r="G9" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="157" t="s">
+      <c r="H9" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157" t="s">
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="157" t="s">
+      <c r="L9" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="157" t="s">
+      <c r="M9" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="189" t="s">
+      <c r="N9" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="191"/>
-    </row>
-    <row r="9" spans="1:32" s="16" customFormat="1" ht="96" customHeight="1" thickBot="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="147" t="s">
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="191"/>
+    </row>
+    <row r="10" spans="1:32" s="16" customFormat="1" ht="96" customHeight="1" thickBot="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="93" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="94"/>
-    </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-    </row>
-    <row r="11" spans="1:32" s="22" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A11" s="195"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-    </row>
-    <row r="12" spans="1:32" s="22" customFormat="1" ht="32">
-      <c r="A12" s="143" t="s">
-        <v>555</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" s="142" t="s">
-        <v>550</v>
-      </c>
-      <c r="F12" s="144" t="s">
-        <v>380</v>
-      </c>
+      <c r="W10" s="94"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+    </row>
+    <row r="12" spans="1:32" s="22" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A12" s="195"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="197"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -20759,26 +20790,26 @@
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
     </row>
-    <row r="13" spans="1:32" s="22" customFormat="1" ht="42">
-      <c r="A13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="140" t="s">
-        <v>549</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>551</v>
-      </c>
-      <c r="G13" s="150"/>
+    <row r="13" spans="1:32" s="22" customFormat="1" ht="32">
+      <c r="A13" s="143" t="s">
+        <v>555</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="142" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" s="144" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -20799,33 +20830,30 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
-    </row>
-    <row r="14" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152">
-        <f>'Database Input Tab all Sections'!U11</f>
-        <v>10</v>
-      </c>
-      <c r="B14" s="152">
-        <f>'Database Input Tab all Sections'!V11</f>
-        <v>20</v>
-      </c>
-      <c r="C14" s="152">
-        <f>'Database Input Tab all Sections'!W11</f>
-        <v>42</v>
-      </c>
-      <c r="D14" s="152">
-        <f>'Database Input Tab all Sections'!X11</f>
-        <v>51.414352154260818</v>
-      </c>
-      <c r="E14" s="155">
-        <f>0.25*SUM(A14:D14)</f>
-        <v>30.853588038565206</v>
-      </c>
-      <c r="F14" s="155">
-        <f>E14/W7</f>
-        <v>65.645931996947255</v>
-      </c>
-      <c r="G14" s="151"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+    </row>
+    <row r="14" spans="1:32" s="22" customFormat="1" ht="42">
+      <c r="A14" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>549</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" s="150"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -20847,20 +20875,32 @@
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
     </row>
-    <row r="15" spans="1:32" s="22" customFormat="1" ht="15" thickBot="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="145" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="146" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="26"/>
+    <row r="15" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="152">
+        <f>'Database Input Tab all Sections'!U11</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="152">
+        <f>'Database Input Tab all Sections'!V11</f>
+        <v>20</v>
+      </c>
+      <c r="C15" s="152">
+        <f>'Database Input Tab all Sections'!W11</f>
+        <v>42</v>
+      </c>
+      <c r="D15" s="152">
+        <f>'Database Input Tab all Sections'!X11</f>
+        <v>51.414352154260818</v>
+      </c>
+      <c r="E15" s="155">
+        <f>0.25*SUM(A15:D15)</f>
+        <v>30.853588038565206</v>
+      </c>
+      <c r="F15" s="155">
+        <f>E15/W7</f>
+        <v>65.645931996947255</v>
+      </c>
+      <c r="G15" s="151"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -20882,705 +20922,750 @@
       <c r="Z15" s="26"/>
       <c r="AA15" s="26"/>
     </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1"/>
-    <row r="17" spans="1:51" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A17" s="183" t="s">
+    <row r="16" spans="1:32" s="22" customFormat="1" ht="15" thickBot="1">
+      <c r="A16" s="250">
+        <f>A15*0.745699872</f>
+        <v>7.4569987199999996</v>
+      </c>
+      <c r="B16" s="250">
+        <f>B15*0.745699872</f>
+        <v>14.913997439999999</v>
+      </c>
+      <c r="C16" s="250">
+        <f>C15*0.745699872</f>
+        <v>31.319394624000001</v>
+      </c>
+      <c r="D16" s="250">
+        <f>D15*0.745699872</f>
+        <v>38.339675820395215</v>
+      </c>
+      <c r="E16" s="145" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+    </row>
+    <row r="17" spans="1:51" ht="15" thickBot="1"/>
+    <row r="18" spans="1:51" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A18" s="183" t="s">
         <v>444</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="184"/>
-      <c r="S17" s="184"/>
-      <c r="T17" s="184"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="184"/>
-      <c r="W17" s="184"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="184"/>
-      <c r="Z17" s="184"/>
-      <c r="AA17" s="184"/>
-      <c r="AB17" s="184"/>
-      <c r="AC17" s="184"/>
-      <c r="AD17" s="184"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="184"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="184"/>
-      <c r="AJ17" s="184"/>
-      <c r="AK17" s="184"/>
-      <c r="AL17" s="184"/>
-      <c r="AM17" s="184"/>
-      <c r="AN17" s="184"/>
-      <c r="AO17" s="184"/>
-      <c r="AP17" s="184"/>
-      <c r="AQ17" s="184"/>
-      <c r="AR17" s="184"/>
-      <c r="AS17" s="185"/>
-    </row>
-    <row r="18" spans="1:51" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+      <c r="Y18" s="184"/>
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="184"/>
+      <c r="AG18" s="184"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="184"/>
+      <c r="AJ18" s="184"/>
+      <c r="AK18" s="184"/>
+      <c r="AL18" s="184"/>
+      <c r="AM18" s="184"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="184"/>
+      <c r="AP18" s="184"/>
+      <c r="AQ18" s="184"/>
+      <c r="AR18" s="184"/>
+      <c r="AS18" s="185"/>
+    </row>
+    <row r="19" spans="1:51" s="23" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A19" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B19" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="83" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E19" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F19" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G19" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H19" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I19" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J19" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K19" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="L18" s="70" t="s">
+      <c r="L19" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="M18" s="64" t="s">
+      <c r="M19" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="N18" s="64" t="s">
+      <c r="N19" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="O18" s="64" t="s">
+      <c r="O19" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="P18" s="64" t="s">
+      <c r="P19" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q19" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="R18" s="64" t="s">
+      <c r="R19" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="S18" s="64" t="s">
+      <c r="S19" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="T18" s="64" t="s">
+      <c r="T19" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="U18" s="64" t="s">
+      <c r="U19" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="V18" s="70" t="s">
+      <c r="V19" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="W18" s="70" t="s">
+      <c r="W19" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="X18" s="70" t="s">
+      <c r="X19" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="Y18" s="85" t="s">
+      <c r="Y19" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="Z18" s="64" t="s">
+      <c r="Z19" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="AA18" s="84" t="s">
+      <c r="AA19" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="AB18" s="70" t="s">
+      <c r="AB19" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="AC18" s="70" t="s">
+      <c r="AC19" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="AD18" s="70" t="s">
+      <c r="AD19" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="AE18" s="64" t="s">
+      <c r="AE19" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="AF18" s="64" t="s">
+      <c r="AF19" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="AG18" s="64" t="s">
+      <c r="AG19" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="AH18" s="64" t="s">
+      <c r="AH19" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AI18" s="64" t="s">
+      <c r="AI19" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="AJ18" s="64" t="s">
+      <c r="AJ19" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="AK18" s="64" t="s">
+      <c r="AK19" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AL19" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AM19" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="AN18" s="70" t="s">
+      <c r="AN19" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="AO18" s="70" t="s">
+      <c r="AO19" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="AP18" s="70" t="s">
+      <c r="AP19" s="70" t="s">
         <v>411</v>
       </c>
-      <c r="AQ18" s="85" t="s">
+      <c r="AQ19" s="85" t="s">
         <v>412</v>
       </c>
-      <c r="AR18" s="85" t="s">
+      <c r="AR19" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="AS18" s="86" t="s">
+      <c r="AS19" s="86" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="42">
-      <c r="A19" s="41" t="s">
+    <row r="20" spans="1:51" ht="42">
+      <c r="A20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B20" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D20" s="157" t="s">
         <v>297</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E20" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="157" t="s">
+      <c r="F20" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G20" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H20" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K20" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L20" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="54" t="s">
+      <c r="M20" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="N19" s="54" t="s">
+      <c r="N20" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="O19" s="54" t="s">
+      <c r="O20" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="P19" s="54" t="s">
+      <c r="P20" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="Q19" s="54" t="s">
+      <c r="Q20" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="R19" s="54" t="s">
+      <c r="R20" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="S19" s="54" t="s">
+      <c r="S20" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="T19" s="54" t="s">
+      <c r="T20" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="U19" s="54" t="s">
+      <c r="U20" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="V19" s="157" t="s">
+      <c r="V20" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="W19" s="157" t="s">
+      <c r="W20" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="X19" s="157" t="s">
+      <c r="X20" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="Y19" s="54" t="s">
+      <c r="Y20" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="Z19" s="157" t="s">
+      <c r="Z20" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="157" t="s">
+      <c r="AA20" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="AB19" s="54" t="s">
+      <c r="AB20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="AC19" s="54" t="s">
+      <c r="AC20" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AD19" s="54" t="s">
+      <c r="AD20" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AE19" s="54" t="s">
+      <c r="AE20" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="AF19" s="54" t="s">
+      <c r="AF20" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="AG19" s="54" t="s">
+      <c r="AG20" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" s="54" t="s">
+      <c r="AH20" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="AI19" s="54" t="s">
+      <c r="AI20" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="AJ19" s="54" t="s">
+      <c r="AJ20" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="AK19" s="54" t="s">
+      <c r="AK20" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="AL19" s="54" t="s">
+      <c r="AL20" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="AM19" s="54" t="s">
+      <c r="AM20" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="AN19" s="157" t="s">
+      <c r="AN20" s="157" t="s">
         <v>353</v>
       </c>
-      <c r="AO19" s="157" t="s">
+      <c r="AO20" s="157" t="s">
         <v>354</v>
       </c>
-      <c r="AP19" s="157" t="s">
+      <c r="AP20" s="157" t="s">
         <v>354</v>
       </c>
-      <c r="AQ19" s="54" t="s">
+      <c r="AQ20" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="AR19" s="54" t="s">
+      <c r="AR20" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="AS19" s="91" t="s">
+      <c r="AS20" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-    </row>
-    <row r="20" spans="1:51">
-      <c r="A20" s="42">
-        <f>((H7*SQRT(N7)/(O7/U7)^0.75))</f>
-        <v>3741.6128749148484</v>
-      </c>
-      <c r="B20" s="39">
-        <f>VLOOKUP($K$7,Lookup!$N$27:$P$36,3,FALSE)</f>
-        <v>134.85</v>
-      </c>
-      <c r="C20" s="35" t="str">
-        <f>F7&amp;-L7&amp;-H7</f>
-        <v>ST-60-3600</v>
-      </c>
-      <c r="D20" s="39">
-        <f>VLOOKUP($C$20,Lookup!$U$28:$V$227,2,FALSE)</f>
-        <v>81.5</v>
-      </c>
-      <c r="E20" s="35">
-        <f>L7/(D20/100)-L7</f>
-        <v>13.619631901840492</v>
-      </c>
-      <c r="F20" s="35">
-        <f>-0.85*(LN($N$7))^2-0.38*LN($A$20)*LN($N$7)-11.48*(LN($A$20))^2+17.8*LN($N$7)+179.8*LN($A$20)-(B20+555.6)</f>
-        <v>68.542037427420951</v>
-      </c>
-      <c r="G20" s="35">
-        <f>N7*O7/3956</f>
-        <v>37.532477072610398</v>
-      </c>
-      <c r="H20" s="35">
-        <f>P7*Q7/3956</f>
-        <v>33.087843981004497</v>
-      </c>
-      <c r="I20" s="35">
-        <f>R7*S7/3956</f>
-        <v>37.302014494094372</v>
-      </c>
-      <c r="J20" s="35">
-        <f>G20/($F$20/100)</f>
-        <v>54.758332960781146</v>
-      </c>
-      <c r="K20" s="35">
-        <f>H20/($F$20/100*0.947)</f>
-        <v>50.975498375420592</v>
-      </c>
-      <c r="L20" s="35">
-        <f>I20/($F$20/100*0.985)</f>
-        <v>55.250860490306387</v>
-      </c>
-      <c r="M20" s="35">
-        <f>IF((J20/$L$7)&gt;1,1,(J20/$L$7))</f>
-        <v>0.91263888267968574</v>
-      </c>
-      <c r="N20" s="35">
-        <f t="shared" ref="N20:O20" si="0">IF((K20/$L$7)&gt;1,1,(K20/$L$7))</f>
-        <v>0.84959163959034323</v>
-      </c>
-      <c r="O20" s="35">
-        <f t="shared" si="0"/>
-        <v>0.92084767483843977</v>
-      </c>
-      <c r="P20" s="35">
-        <f>-0.4508*M20^3+1.2399*M20^2+-0.4301*M20+0.641</f>
-        <v>0.93852506187822504</v>
-      </c>
-      <c r="Q20" s="35">
-        <f>-0.4508*N20^3+1.2399*N20^2+-0.4301*N20+0.641</f>
-        <v>0.89410910922039744</v>
-      </c>
-      <c r="R20" s="35">
-        <f>-0.4508*O20^3+1.2399*O20^2+-0.4301*O20+0.641</f>
-        <v>0.94432581111093983</v>
-      </c>
-      <c r="S20" s="35">
-        <f>P20*$E$20</f>
-        <v>12.782365873433495</v>
-      </c>
-      <c r="T20" s="35">
-        <f>Q20*$E$20</f>
-        <v>12.17743694766431</v>
-      </c>
-      <c r="U20" s="35">
-        <f>R20*$E$20</f>
-        <v>12.861369942737955</v>
-      </c>
-      <c r="V20" s="35">
-        <f>S20+J20</f>
-        <v>67.540698834214638</v>
-      </c>
-      <c r="W20" s="35">
-        <f>T20+K20</f>
-        <v>63.152935323084904</v>
-      </c>
-      <c r="X20" s="35">
-        <f>U20+L20</f>
-        <v>68.112230433044346</v>
-      </c>
-      <c r="Y20" s="35">
-        <f>(0.3333*(J20+S20)+0.3333*(K20+T20)+0.3333*(L20+U20))</f>
-        <v>66.261994667961616</v>
-      </c>
-      <c r="Z20" s="39">
-        <f>VLOOKUP($K$7,Lookup!$N$27:$P$36,2,FALSE)</f>
-        <v>138.78</v>
-      </c>
-      <c r="AA20" s="35">
-        <f>-0.85*(LN($N$7))^2-0.38*LN($A$20)*LN($N$7)-11.48*(LN($A$20))^2+17.8*LN($N$7)+179.8*LN($A$20)-(Z20+555.6)</f>
-        <v>64.612037427421001</v>
-      </c>
-      <c r="AB20" s="35">
-        <f>G20/($AA$20/100)</f>
-        <v>58.088985531172582</v>
-      </c>
-      <c r="AC20" s="35">
-        <f>H20/($AA$20/100*0.947)</f>
-        <v>54.076061623258681</v>
-      </c>
-      <c r="AD20" s="35">
-        <f>I20/($AA$20/100*0.985)</f>
-        <v>58.611470840518791</v>
-      </c>
-      <c r="AE20" s="35">
-        <f>IF((AB20/$L$7)&gt;1,1,(AB20/$L$7))</f>
-        <v>0.96814975885287635</v>
-      </c>
-      <c r="AF20" s="35">
-        <f t="shared" ref="AF20:AG20" si="1">IF((AC20/$L$7)&gt;1,1,(AC20/$L$7))</f>
-        <v>0.90126769372097804</v>
-      </c>
-      <c r="AG20" s="35">
-        <f t="shared" si="1"/>
-        <v>0.97685784734197989</v>
-      </c>
-      <c r="AH20" s="35">
-        <f>-0.4508*AE20^3+1.2399*AE20^2+-0.4301*AE20+0.641</f>
-        <v>0.97769126797753358</v>
-      </c>
-      <c r="AI20" s="35">
-        <f>-0.4508*AF20^3+1.2399*AF20^2+-0.4301*AF20+0.641</f>
-        <v>0.93049117727634534</v>
-      </c>
-      <c r="AJ20" s="35">
-        <f>-0.4508*AG20^3+1.2399*AG20^2+-0.4301*AG20+0.641</f>
-        <v>0.98380831375047451</v>
-      </c>
-      <c r="AK20" s="35">
-        <f>AH20*$E$20</f>
-        <v>13.315795183497698</v>
-      </c>
-      <c r="AL20" s="35">
-        <f>AI20*$E$20</f>
-        <v>12.67294732241403</v>
-      </c>
-      <c r="AM20" s="35">
-        <f>AJ20*$E$20</f>
-        <v>13.399107095251862</v>
-      </c>
-      <c r="AN20" s="35">
-        <f>AK20+AB20</f>
-        <v>71.404780714670281</v>
-      </c>
-      <c r="AO20" s="35">
-        <f>AL20+AC20</f>
-        <v>66.749008945672713</v>
-      </c>
-      <c r="AP20" s="35">
-        <f>AM20+AD20</f>
-        <v>72.010577935770655</v>
-      </c>
-      <c r="AQ20" s="35">
-        <f>0.3333*(AB20+AK20)+0.3333*(AC20+AL20)+0.3333*(AD20+AM20)</f>
-        <v>70.047783719784675</v>
-      </c>
-      <c r="AR20" s="35">
-        <f>AQ20/Y20</f>
-        <v>1.057133641551143</v>
-      </c>
-      <c r="AS20" s="43">
-        <f>IF((F14/Y20)&gt;1.02,"error",IF((F14/Y20)&lt;0.98,"error",(AR20-W7)*100))</f>
-        <v>58.713364155114299</v>
-      </c>
-      <c r="AT20" s="23">
-        <f>F14/Y20</f>
-        <v>0.99070262411958099</v>
-      </c>
+      <c r="AT20" s="23"/>
       <c r="AU20" s="23"/>
       <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="23"/>
     </row>
-    <row r="21" spans="1:51" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A21" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="149" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="I21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="J21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="K21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="L21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="M21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="N21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="O21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="P21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="R21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="T21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="U21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="V21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="W21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="X21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z21" s="149" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AK21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AO21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR21" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS21" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="AT21" s="23"/>
+    <row r="21" spans="1:51">
+      <c r="A21" s="42">
+        <f>((H7*SQRT(N7)/(O7/U7)^0.75))</f>
+        <v>3741.6128749148484</v>
+      </c>
+      <c r="B21" s="39">
+        <f>VLOOKUP($K$7,Lookup!$N$27:$P$36,3,FALSE)</f>
+        <v>134.85</v>
+      </c>
+      <c r="C21" s="35" t="str">
+        <f>F7&amp;-L7&amp;-H7</f>
+        <v>ST-60-3600</v>
+      </c>
+      <c r="D21" s="39">
+        <f>VLOOKUP($C$21,Lookup!$U$28:$V$227,2,FALSE)</f>
+        <v>81.5</v>
+      </c>
+      <c r="E21" s="35">
+        <f>L7/(D21/100)-L7</f>
+        <v>13.619631901840492</v>
+      </c>
+      <c r="F21" s="35">
+        <f>-0.85*(LN($N$7))^2-0.38*LN($A$21)*LN($N$7)-11.48*(LN($A$21))^2+17.8*LN($N$7)+179.8*LN($A$21)-(B21+555.6)</f>
+        <v>68.542037427420951</v>
+      </c>
+      <c r="G21" s="35">
+        <f>N7*O7/3956</f>
+        <v>37.532477072610398</v>
+      </c>
+      <c r="H21" s="35">
+        <f>P7*Q7/3956</f>
+        <v>33.087843981004497</v>
+      </c>
+      <c r="I21" s="35">
+        <f>R7*S7/3956</f>
+        <v>37.302014494094372</v>
+      </c>
+      <c r="J21" s="35">
+        <f>G21/($F$21/100)</f>
+        <v>54.758332960781146</v>
+      </c>
+      <c r="K21" s="35">
+        <f>H21/($F$21/100*0.947)</f>
+        <v>50.975498375420592</v>
+      </c>
+      <c r="L21" s="35">
+        <f>I21/($F$21/100*0.985)</f>
+        <v>55.250860490306387</v>
+      </c>
+      <c r="M21" s="35">
+        <f>IF((J21/$L$7)&gt;1,1,(J21/$L$7))</f>
+        <v>0.91263888267968574</v>
+      </c>
+      <c r="N21" s="35">
+        <f t="shared" ref="N21:O21" si="0">IF((K21/$L$7)&gt;1,1,(K21/$L$7))</f>
+        <v>0.84959163959034323</v>
+      </c>
+      <c r="O21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.92084767483843977</v>
+      </c>
+      <c r="P21" s="35">
+        <f>-0.4508*M21^3+1.2399*M21^2+-0.4301*M21+0.641</f>
+        <v>0.93852506187822504</v>
+      </c>
+      <c r="Q21" s="35">
+        <f>-0.4508*N21^3+1.2399*N21^2+-0.4301*N21+0.641</f>
+        <v>0.89410910922039744</v>
+      </c>
+      <c r="R21" s="35">
+        <f>-0.4508*O21^3+1.2399*O21^2+-0.4301*O21+0.641</f>
+        <v>0.94432581111093983</v>
+      </c>
+      <c r="S21" s="35">
+        <f>P21*$E$21</f>
+        <v>12.782365873433495</v>
+      </c>
+      <c r="T21" s="35">
+        <f>Q21*$E$21</f>
+        <v>12.17743694766431</v>
+      </c>
+      <c r="U21" s="35">
+        <f>R21*$E$21</f>
+        <v>12.861369942737955</v>
+      </c>
+      <c r="V21" s="35">
+        <f>S21+J21</f>
+        <v>67.540698834214638</v>
+      </c>
+      <c r="W21" s="35">
+        <f>T21+K21</f>
+        <v>63.152935323084904</v>
+      </c>
+      <c r="X21" s="35">
+        <f>U21+L21</f>
+        <v>68.112230433044346</v>
+      </c>
+      <c r="Y21" s="35">
+        <f>(0.3333*(J21+S21)+0.3333*(K21+T21)+0.3333*(L21+U21))</f>
+        <v>66.261994667961616</v>
+      </c>
+      <c r="Z21" s="39">
+        <f>VLOOKUP($K$7,Lookup!$N$27:$P$36,2,FALSE)</f>
+        <v>138.78</v>
+      </c>
+      <c r="AA21" s="35">
+        <f>-0.85*(LN($N$7))^2-0.38*LN($A$21)*LN($N$7)-11.48*(LN($A$21))^2+17.8*LN($N$7)+179.8*LN($A$21)-(Z21+555.6)</f>
+        <v>64.612037427421001</v>
+      </c>
+      <c r="AB21" s="35">
+        <f>G21/($AA$21/100)</f>
+        <v>58.088985531172582</v>
+      </c>
+      <c r="AC21" s="35">
+        <f>H21/($AA$21/100*0.947)</f>
+        <v>54.076061623258681</v>
+      </c>
+      <c r="AD21" s="35">
+        <f>I21/($AA$21/100*0.985)</f>
+        <v>58.611470840518791</v>
+      </c>
+      <c r="AE21" s="35">
+        <f>IF((AB21/$L$7)&gt;1,1,(AB21/$L$7))</f>
+        <v>0.96814975885287635</v>
+      </c>
+      <c r="AF21" s="35">
+        <f t="shared" ref="AF21:AG21" si="1">IF((AC21/$L$7)&gt;1,1,(AC21/$L$7))</f>
+        <v>0.90126769372097804</v>
+      </c>
+      <c r="AG21" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97685784734197989</v>
+      </c>
+      <c r="AH21" s="35">
+        <f>-0.4508*AE21^3+1.2399*AE21^2+-0.4301*AE21+0.641</f>
+        <v>0.97769126797753358</v>
+      </c>
+      <c r="AI21" s="35">
+        <f>-0.4508*AF21^3+1.2399*AF21^2+-0.4301*AF21+0.641</f>
+        <v>0.93049117727634534</v>
+      </c>
+      <c r="AJ21" s="35">
+        <f>-0.4508*AG21^3+1.2399*AG21^2+-0.4301*AG21+0.641</f>
+        <v>0.98380831375047451</v>
+      </c>
+      <c r="AK21" s="35">
+        <f>AH21*$E$21</f>
+        <v>13.315795183497698</v>
+      </c>
+      <c r="AL21" s="35">
+        <f>AI21*$E$21</f>
+        <v>12.67294732241403</v>
+      </c>
+      <c r="AM21" s="35">
+        <f>AJ21*$E$21</f>
+        <v>13.399107095251862</v>
+      </c>
+      <c r="AN21" s="35">
+        <f>AK21+AB21</f>
+        <v>71.404780714670281</v>
+      </c>
+      <c r="AO21" s="35">
+        <f>AL21+AC21</f>
+        <v>66.749008945672713</v>
+      </c>
+      <c r="AP21" s="35">
+        <f>AM21+AD21</f>
+        <v>72.010577935770655</v>
+      </c>
+      <c r="AQ21" s="35">
+        <f>0.3333*(AB21+AK21)+0.3333*(AC21+AL21)+0.3333*(AD21+AM21)</f>
+        <v>70.047783719784675</v>
+      </c>
+      <c r="AR21" s="35">
+        <f>AQ21/Y21</f>
+        <v>1.057133641551143</v>
+      </c>
+      <c r="AS21" s="43">
+        <f>IF((F15/Y21)&gt;1.02,"error",IF((F15/Y21)&lt;0.98,"error",(AR21-W7)*100))</f>
+        <v>58.713364155114299</v>
+      </c>
+      <c r="AT21" s="23">
+        <f>F15/Y21</f>
+        <v>0.99070262411958099</v>
+      </c>
       <c r="AU21" s="23"/>
       <c r="AV21" s="23"/>
       <c r="AW21" s="23"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
     </row>
-    <row r="22" spans="1:51" ht="15">
-      <c r="G22" s="33"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="24"/>
-    </row>
-    <row r="28" spans="1:51">
-      <c r="X28" s="23" t="e">
+    <row r="22" spans="1:51" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A22" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="M22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="O22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="P22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="R22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="S22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="T22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="U22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="V22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="W22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="X22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z22" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR22" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS22" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+    </row>
+    <row r="23" spans="1:51" ht="15">
+      <c r="G23" s="33"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="24"/>
+    </row>
+    <row r="29" spans="1:51">
+      <c r="X29" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -21588,17 +21673,18 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A17:AS17"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A18:AS18"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="AS21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -22994,7 +23080,7 @@
     <mergeCell ref="A11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"error"</formula>
     </cfRule>
   </conditionalFormatting>
